--- a/R/CH83-ClassificationTask/File3.xlsx
+++ b/R/CH83-ClassificationTask/File3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafrocBook/R/CH83-ClassificationTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8BD8C9-2492-D94E-BADA-5FEC14514492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1819C21-6150-064D-B63C-4889F88442DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="7900" windowWidth="10000" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="7900" windowWidth="10000" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="1" r:id="rId1"/>
@@ -1639,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1833,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1885,7 +1885,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>27</v>

--- a/R/CH83-ClassificationTask/File3.xlsx
+++ b/R/CH83-ClassificationTask/File3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafrocBook/R/CH83-ClassificationTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1819C21-6150-064D-B63C-4889F88442DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{405BFBB1-CE25-0A4A-8A4D-E4B32DAA9465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="7900" windowWidth="10000" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13060" yWindow="5300" windowWidth="10000" windowHeight="8040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="1" r:id="rId1"/>
@@ -1833,7 +1833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/R/CH83-ClassificationTask/File3.xlsx
+++ b/R/CH83-ClassificationTask/File3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafrocBook/R/CH83-ClassificationTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{405BFBB1-CE25-0A4A-8A4D-E4B32DAA9465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37C1856-A759-A047-A9CF-7F251B99955C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="5300" windowWidth="10000" windowHeight="8040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13060" yWindow="5300" windowWidth="10000" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>ClassTrue</t>
   </si>
   <si>
-    <t>ClassRx</t>
-  </si>
-  <si>
     <t>CL-IC</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>ClassDx</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1670,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1690,10 +1690,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1713,10 +1713,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1736,10 +1736,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1756,13 +1756,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1782,10 +1782,10 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1805,10 +1805,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1833,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1865,7 +1865,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1882,16 +1882,16 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1908,13 +1908,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1931,13 +1931,13 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1954,13 +1954,13 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1977,13 +1977,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2000,13 +2000,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2024,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2055,10 +2055,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2078,10 +2078,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2101,10 +2101,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
